--- a/Team-Data/2014-15/4-13-2014-15.xlsx
+++ b/Team-Data/2014-15/4-13-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.741</v>
+        <v>0.75</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,7 +751,7 @@
         <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K2" t="n">
         <v>0.467</v>
@@ -693,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="N2" t="n">
         <v>0.382</v>
@@ -705,22 +772,22 @@
         <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
         <v>25.9</v>
       </c>
       <c r="V2" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
         <v>9.1</v>
@@ -735,16 +802,16 @@
         <v>17.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -947,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>14</v>
@@ -959,13 +1026,13 @@
         <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>12</v>
@@ -974,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -1030,34 +1097,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>0.457</v>
+        <v>0.463</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J4" t="n">
         <v>83</v>
       </c>
       <c r="K4" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>0.331</v>
@@ -1066,61 +1133,61 @@
         <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T4" t="n">
         <v>42.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>18</v>
@@ -1129,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1147,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
@@ -1159,16 +1226,16 @@
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
         <v>11</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>0.407</v>
+        <v>0.413</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1236,25 +1303,25 @@
         <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.317</v>
+        <v>0.315</v>
       </c>
       <c r="O5" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P5" t="n">
         <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S5" t="n">
         <v>34.1</v>
@@ -1266,16 +1333,16 @@
         <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
         <v>18.3</v>
@@ -1284,13 +1351,13 @@
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC5" t="n">
         <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1353,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O6" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.782</v>
@@ -1454,28 +1521,28 @@
         <v>6.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z6" t="n">
         <v>18.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD6" t="n">
         <v>3</v>
       </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
         <v>18</v>
@@ -1508,13 +1575,13 @@
         <v>3</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1523,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>12</v>
@@ -1535,19 +1602,19 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB6" t="n">
         <v>15</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
         <v>29</v>
       </c>
       <c r="G7" t="n">
-        <v>0.642</v>
+        <v>0.638</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J7" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K7" t="n">
         <v>0.458</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M7" t="n">
         <v>27.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O7" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
@@ -1624,10 +1691,10 @@
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V7" t="n">
         <v>14.3</v>
@@ -1645,16 +1712,16 @@
         <v>18.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1675,46 +1742,46 @@
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM7" t="n">
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
         <v>10</v>
@@ -1723,10 +1790,10 @@
         <v>5</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -1773,13 +1840,13 @@
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J8" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L8" t="n">
         <v>8.9</v>
@@ -1794,25 +1861,25 @@
         <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
         <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
@@ -1830,13 +1897,13 @@
         <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1869,19 +1936,19 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP8" t="n">
         <v>17</v>
       </c>
-      <c r="AP8" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
@@ -1893,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
       </c>
       <c r="F9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,40 +2025,40 @@
         <v>37.7</v>
       </c>
       <c r="J9" t="n">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="K9" t="n">
         <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O9" t="n">
         <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="R9" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
         <v>32.4</v>
       </c>
       <c r="T9" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
@@ -2012,13 +2079,13 @@
         <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC9" t="n">
         <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
@@ -2057,19 +2124,19 @@
         <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV9" t="n">
         <v>15</v>
@@ -2078,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="AX9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2087,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.383</v>
+        <v>0.388</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2152,34 +2219,34 @@
         <v>24.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
         <v>22.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.702</v>
+        <v>0.704</v>
       </c>
       <c r="R10" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
         <v>21.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X10" t="n">
         <v>4.7</v>
@@ -2188,19 +2255,19 @@
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA10" t="n">
         <v>19.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2218,7 +2285,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
@@ -2236,7 +2303,7 @@
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2257,22 +2324,22 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX10" t="n">
         <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>87.2</v>
       </c>
       <c r="K11" t="n">
         <v>0.477</v>
@@ -2331,19 +2398,19 @@
         <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.397</v>
+        <v>0.396</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
@@ -2358,7 +2425,7 @@
         <v>27.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W11" t="n">
         <v>9.300000000000001</v>
@@ -2379,10 +2446,10 @@
         <v>109.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2418,19 +2485,19 @@
         <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.443</v>
@@ -2513,19 +2580,19 @@
         <v>11.4</v>
       </c>
       <c r="M12" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.716</v>
+        <v>0.714</v>
       </c>
       <c r="R12" t="n">
         <v>11.8</v>
@@ -2537,7 +2604,7 @@
         <v>43.6</v>
       </c>
       <c r="U12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.7</v>
@@ -2546,25 +2613,25 @@
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD12" t="n">
         <v>3</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>21</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2582,10 +2649,10 @@
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2627,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -2746,22 +2813,22 @@
         <v>0.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
         <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2770,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2785,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
@@ -2794,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
@@ -2821,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="n">
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0.679</v>
+        <v>0.675</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J14" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M14" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P14" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
@@ -2919,25 +2986,25 @@
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="AC14" t="n">
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2961,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -3047,46 +3114,46 @@
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W15" t="n">
         <v>7.1</v>
@@ -3095,22 +3162,22 @@
         <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3137,37 +3204,37 @@
         <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS15" t="n">
         <v>13</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>12</v>
-      </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>54</v>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.667</v>
+        <v>0.675</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3232,7 +3299,7 @@
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.458</v>
@@ -3250,16 +3317,16 @@
         <v>17.6</v>
       </c>
       <c r="P16" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T16" t="n">
         <v>42.5</v>
@@ -3274,7 +3341,7 @@
         <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
         <v>5.1</v>
@@ -3286,22 +3353,22 @@
         <v>20.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>5</v>
@@ -3313,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,19 +3389,19 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
@@ -3358,13 +3425,13 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="n">
         <v>45</v>
       </c>
       <c r="G17" t="n">
-        <v>0.444</v>
+        <v>0.438</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3420,10 +3487,10 @@
         <v>0.456</v>
       </c>
       <c r="L17" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.334</v>
@@ -3435,16 +3502,16 @@
         <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R17" t="n">
         <v>9.1</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U17" t="n">
         <v>19.8</v>
@@ -3453,10 +3520,10 @@
         <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>4.4</v>
@@ -3468,13 +3535,13 @@
         <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3489,7 +3556,7 @@
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3513,7 +3580,7 @@
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3528,13 +3595,13 @@
         <v>30</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,13 +3610,13 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>27</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="n">
         <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J18" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L18" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R18" t="n">
         <v>10.6</v>
@@ -3635,10 +3702,10 @@
         <v>16.7</v>
       </c>
       <c r="W18" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y18" t="n">
         <v>4.8</v>
@@ -3647,16 +3714,16 @@
         <v>22.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3668,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3677,7 +3744,7 @@
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3686,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>17</v>
@@ -3713,13 +3780,13 @@
         <v>29</v>
       </c>
       <c r="AW18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" t="n">
-        <v>0.198</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J19" t="n">
         <v>83.2</v>
@@ -3784,16 +3851,16 @@
         <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>14.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O19" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P19" t="n">
         <v>25.6</v>
@@ -3802,10 +3869,10 @@
         <v>0.775</v>
       </c>
       <c r="R19" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S19" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T19" t="n">
         <v>40.9</v>
@@ -3814,16 +3881,16 @@
         <v>21.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z19" t="n">
         <v>19.1</v>
@@ -3832,25 +3899,25 @@
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC19" t="n">
         <v>-8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3874,13 +3941,13 @@
         <v>2</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3889,22 +3956,22 @@
         <v>27</v>
       </c>
       <c r="AU19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="n">
         <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY19" t="n">
         <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -3957,10 +4024,10 @@
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.457</v>
@@ -3969,31 +4036,31 @@
         <v>7.2</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.751</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V20" t="n">
         <v>13.4</v>
@@ -4002,13 +4069,13 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA20" t="n">
         <v>18.6</v>
@@ -4017,19 +4084,19 @@
         <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4038,7 +4105,7 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
         <v>10</v>
@@ -4059,16 +4126,16 @@
         <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4077,7 +4144,7 @@
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
         <v>64</v>
       </c>
       <c r="G21" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L21" t="n">
         <v>6.8</v>
       </c>
       <c r="M21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O21" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P21" t="n">
         <v>19.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
@@ -4175,7 +4242,7 @@
         <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
         <v>14.6</v>
@@ -4193,16 +4260,16 @@
         <v>21.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>91.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4214,10 +4281,10 @@
         <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
         <v>24</v>
@@ -4226,22 +4293,22 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4259,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX21" t="n">
         <v>14</v>
@@ -4268,13 +4335,13 @@
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="n">
         <v>37</v>
       </c>
       <c r="G22" t="n">
-        <v>0.543</v>
+        <v>0.538</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>38.7</v>
       </c>
       <c r="J22" t="n">
-        <v>86.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.446</v>
@@ -4336,31 +4403,31 @@
         <v>22.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O22" t="n">
         <v>18.5</v>
       </c>
       <c r="P22" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R22" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S22" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="T22" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4378,13 +4445,13 @@
         <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4570,7 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
         <v>82.90000000000001</v>
@@ -4515,7 +4582,7 @@
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.347</v>
@@ -4527,31 +4594,31 @@
         <v>19.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X23" t="n">
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z23" t="n">
         <v>20.9</v>
@@ -4560,13 +4627,13 @@
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,7 +4648,7 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>19</v>
@@ -4590,31 +4657,31 @@
         <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR23" t="n">
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4629,7 +4696,7 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" t="n">
-        <v>0.222</v>
+        <v>0.225</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,10 +4755,10 @@
         <v>33.7</v>
       </c>
       <c r="J24" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="L24" t="n">
         <v>8.5</v>
@@ -4700,34 +4767,34 @@
         <v>26.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="O24" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P24" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.674</v>
+        <v>0.672</v>
       </c>
       <c r="R24" t="n">
         <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T24" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V24" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="W24" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X24" t="n">
         <v>6</v>
@@ -4736,19 +4803,19 @@
         <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA24" t="n">
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="AC24" t="n">
         <v>-9</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4814,13 +4881,13 @@
         <v>27</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
       </c>
       <c r="BB24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -4942,19 +5009,19 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
         <v>51</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>0.63</v>
+        <v>0.638</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5061,28 +5128,28 @@
         <v>9.9</v>
       </c>
       <c r="M26" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="N26" t="n">
         <v>0.363</v>
       </c>
       <c r="O26" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8</v>
+        <v>0.801</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S26" t="n">
         <v>35.2</v>
       </c>
       <c r="T26" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
         <v>22</v>
@@ -5091,40 +5158,40 @@
         <v>13.6</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y26" t="n">
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA26" t="n">
         <v>18.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
@@ -5133,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL26" t="n">
         <v>6</v>
@@ -5142,10 +5209,10 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP26" t="n">
         <v>28</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,7 +5251,7 @@
         <v>27</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="n">
         <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.346</v>
+        <v>0.338</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,10 +5301,10 @@
         <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L27" t="n">
         <v>5.6</v>
@@ -5246,43 +5313,43 @@
         <v>16.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O27" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="P27" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="Q27" t="n">
         <v>0.766</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S27" t="n">
         <v>33.2</v>
       </c>
       <c r="T27" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U27" t="n">
         <v>20.2</v>
       </c>
       <c r="V27" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W27" t="n">
         <v>6.7</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA27" t="n">
         <v>23.8</v>
@@ -5291,10 +5358,10 @@
         <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,10 +5373,10 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5354,7 +5421,7 @@
         <v>25</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.675</v>
+        <v>0.679</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
         <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
         <v>0.78</v>
@@ -5443,22 +5510,22 @@
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
@@ -5473,19 +5540,19 @@
         <v>103.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5509,10 +5576,10 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5533,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="AW28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5542,7 +5609,7 @@
         <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
         <v>13</v>
@@ -5676,7 +5743,7 @@
         <v>11</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>12</v>
@@ -5706,10 +5773,10 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" t="n">
         <v>43</v>
       </c>
       <c r="G30" t="n">
-        <v>0.469</v>
+        <v>0.463</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5783,25 +5850,25 @@
         <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L30" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P30" t="n">
         <v>23.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R30" t="n">
         <v>12</v>
@@ -5810,10 +5877,10 @@
         <v>31.9</v>
       </c>
       <c r="T30" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U30" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V30" t="n">
         <v>15.3</v>
@@ -5834,16 +5901,16 @@
         <v>19.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5864,19 +5931,19 @@
         <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>26</v>
@@ -5885,7 +5952,7 @@
         <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>11</v>
@@ -5897,7 +5964,7 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
@@ -5915,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6040,7 +6107,7 @@
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
         <v>5</v>
@@ -6055,16 +6122,16 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-13-2014-15</t>
+          <t>2015-04-13</t>
         </is>
       </c>
     </row>
